--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,37 +189,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Oct 10, 2025 12:41:28 pm</t>
+    <t>Oct 10, 2025 1:24:50 pm</t>
   </si>
   <si>
-    <t>Oct 10, 2025 12:40:35 pm</t>
+    <t>Oct 10, 2025 1:24:34 pm</t>
   </si>
   <si>
-    <t>Oct 10, 2025 12:41:27 pm</t>
+    <t>Oct 10, 2025 1:24:49 pm</t>
   </si>
   <si>
-    <t>52.616 s</t>
+    <t>15.003 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</t>
+    <t>TC_UI_Zlaata_PLP_01 |Verify that the "Home" text link on the Product Listing page is clickable.|"TD_UI_Zlaata_PLP_01"</t>
   </si>
   <si>
-    <t>51.048 s</t>
+    <t>14.353 s</t>
   </si>
   <si>
-    <t>Product Details Page Feature</t>
+    <t>This is Product Listing Page feature</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_PDP_02</t>
+    <t>@TC_UI_Zlaata_PLP_01</t>
   </si>
   <si>
     <t>@sanity</t>
   </si>
   <si>
-    <t>51.057 s</t>
+    <t>14.358 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
+                  <c:v>TC_UI_Zlaata_PLP_01 |Verify that the "Home" text link on the Product Listing page is clickable.|"TD_UI_Zlaata_PLP_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1863,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
+                  <c:v>TC_UI_Zlaata_PLP_01 |Verify that the "Home" text link on the Product Listing page is clickable.|"TD_UI_Zlaata_PLP_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
+                  <c:v>TC_UI_Zlaata_PLP_01 |Verify that the "Home" text link on the Product Listing page is clickable.|"TD_UI_Zlaata_PLP_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2337,7 +2337,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
+                  <c:v>@TC_UI_Zlaata_PLP_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@sanity</c:v>
@@ -2416,7 +2416,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
+                  <c:v>@TC_UI_Zlaata_PLP_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@sanity</c:v>
@@ -2487,7 +2487,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
+                  <c:v>@TC_UI_Zlaata_PLP_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@sanity</c:v>
@@ -2706,7 +2706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Product Details Page Feature</c:v>
+                  <c:v>This is Product Listing Page feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2778,7 +2778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Product Details Page Feature</c:v>
+                  <c:v>This is Product Listing Page feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2845,7 +2845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Product Details Page Feature</c:v>
+                  <c:v>This is Product Listing Page feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5788,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="B5F9" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FC0D" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>Duration</t>
   </si>
@@ -189,34 +189,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Oct 15, 2025 4:24:43 PM</t>
+    <t>Oct 27, 2025 3:42:42 PM</t>
   </si>
   <si>
-    <t>Oct 15, 2025 4:22:49 PM</t>
+    <t>Oct 27, 2025 3:41:55 PM</t>
   </si>
   <si>
-    <t>Oct 15, 2025 4:24:38 PM</t>
+    <t>Oct 27, 2025 3:42:38 PM</t>
   </si>
   <si>
-    <t>1 m 48.291 s</t>
+    <t>42.923 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_APE_01 |Verify exported products have dates within selected range.| "TD_UI_Zlaata_APE_01"</t>
+    <t>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</t>
   </si>
   <si>
-    <t>1 m 47.360 s</t>
+    <t>41.831 s</t>
   </si>
   <si>
-    <t>Admin Export The Excel File and Check with  Export Excel File Check Wheather its Matching .</t>
+    <t>Verify coupon creation and availability in Admin and User App</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_APE_01</t>
+    <t>@Regression</t>
   </si>
   <si>
-    <t>1 m 47.368 s</t>
+    <t>@TC_UI_Zlaata_ADC_03</t>
+  </si>
+  <si>
+    <t>41.838 s</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_APE_01 |Verify exported products have dates within selected range.| "TD_UI_Zlaata_APE_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1860,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_APE_01 |Verify exported products have dates within selected range.| "TD_UI_Zlaata_APE_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1927,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_APE_01 |Verify exported products have dates within selected range.| "TD_UI_Zlaata_APE_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2330,21 +2333,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_APE_01</c:v>
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADC_03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22</c:f>
+              <c:f>Tags!$D$22:$D$23</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2403,18 +2412,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_APE_01</c:v>
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADC_03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22</c:f>
+              <c:f>Tags!$F$22:$F$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2471,18 +2483,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_APE_01</c:v>
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADC_03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22</c:f>
+              <c:f>Tags!$E$22:$E$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2691,7 +2706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with  Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2763,7 +2778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with  Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2830,7 +2845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with  Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5773,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="910B" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="D7FD" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5885,7 +5900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I27"/>
+  <dimension ref="B20:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5947,48 +5962,83 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+    <row r="23">
+      <c r="B23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C27" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="36" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I27" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="54" t="s">
+    <row r="28">
+      <c r="B28" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C28" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="62" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I28" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="55" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6085,7 +6135,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1.0</v>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,70 +217,63 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Oct 30, 2025 4:12:27 PM</t>
   </si>
   <si>
-    <t>Oct 27, 2025 3:42:42 PM</t>
+    <t>Oct 30, 2025 4:11:26 PM</t>
   </si>
   <si>
-    <t>Oct 27, 2025 3:41:55 PM</t>
+    <t>Oct 30, 2025 4:12:23 PM</t>
   </si>
   <si>
-    <t>Oct 27, 2025 3:42:38 PM</t>
+    <t>57.021 s</t>
   </si>
   <si>
-    <t>42.923 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>50%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</t>
-  </si>
-  <si>
-    <t>41.831 s</t>
-  </si>
-  <si>
-    <t>Verify coupon creation and availability in Admin and User App</t>
+    <t>@TC_UI_Admin_PSColor_01</t>
   </si>
   <si>
     <t>@Regression</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADC_03</t>
+    <t>Verify secondary color display for product</t>
   </si>
   <si>
-    <t>41.838 s</t>
+    <t>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</t>
+  </si>
+  <si>
+    <t>55.902 s</t>
+  </si>
+  <si>
+    <t>55.911 s</t>
+  </si>
+  <si>
+    <t>Then the secondary color should display on the product details, add to cart popup, wishlist, and checkout pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: Color mismatch in Checkout page! Expected: Space | Found: Blue
+	at org.junit.Assert.fail(Assert.java:89)
+	at pages.AdminProductSecondaryColorPage.verifyProductColorInUserApp(AdminProductSecondaryColorPage.java:531)
+	at stepDef.AdminProductSecondaryColorStepDef.the_secondary_color_should_display_on_the_product_details_add_to_cart_popup_wishlist_and_checkout_pages(AdminProductSecondaryColorStepDef.java:26)
+	at ✽.the secondary color should display on the product details, add to cart popup, wishlist, and checkout pages(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/secondaryColor.feature:8)
+</t>
   </si>
 </sst>
 </file>
@@ -227,7 +281,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +292,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,9 +365,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +391,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +404,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -348,11 +437,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -377,6 +461,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -444,9 +565,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -474,173 +593,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,24 +783,30 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -717,10 +816,719 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$B$20:$B$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$20:$D$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$C$20:$C$21</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46151168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46117248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46117248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46151168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify secondary color display for product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify secondary color display for product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify secondary color display for product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46512000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46513536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46513536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46512000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
+          <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -762,7 +1570,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -787,7 +1595,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -812,7 +1620,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -842,12 +1650,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -883,7 +1697,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -909,15 +1723,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Devices</a:t>
+              <a:t>Authors</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -927,10 +1740,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -942,7 +1755,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$D$21</c:f>
+              <c:f>Authors!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,37 +1790,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$D$22</c:f>
+              <c:f>Authors!$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,7 +1828,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$F$21</c:f>
+              <c:f>Authors!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,25 +1863,24 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$F$22</c:f>
+              <c:f>Authors!$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1081,7 +1892,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1090,7 +1901,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$E$21</c:f>
+              <c:f>Authors!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1125,37 +1936,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$E$22</c:f>
+              <c:f>Authors!$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1169,11 +1979,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1993,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +2001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +2019,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1217,14 +2027,379 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1278,12 +2453,750 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify secondary color display for product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify secondary color display for product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify secondary color display for product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenarios</a:t>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1292,8 +3205,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1305,10 +3218,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1350,7 +3263,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1375,7 +3288,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1400,42 +3313,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
+                  <c:v>Features Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
+                  <c:v>Features Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
+                  <c:v>Features Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1471,7 +3421,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1491,16 +3441,16 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Steps</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1509,8 +3459,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1522,10 +3472,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1567,7 +3517,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1592,7 +3542,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1617,42 +3567,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
+                  <c:v>Scenarios Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
+                  <c:v>Scenarios Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
+                  <c:v>Scenarios Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1688,7 +3675,261 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1731,9 +3972,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
+          <c:x val="3.3278738246891114E-2"/>
           <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
+          <c:w val="0.953375796178344"/>
           <c:h val="0.85236429602767994"/>
         </c:manualLayout>
       </c:layout>
@@ -1791,7 +4032,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</c:v>
+                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,14 +4043,14 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,7 +4104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</c:v>
+                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1876,7 +4117,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1930,7 +4171,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADC_03 |Verify Admin can create a Specific Product Item coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_03"</c:v>
+                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1938,12 +4179,17 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1957,11 +4203,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97185152"/>
+        <c:axId val="89325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +4217,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
+        <c:crossAx val="44310528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1979,7 +4225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97201536"/>
+        <c:axId val="44310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +4257,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
+        <c:crossAx val="89325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,7 +4286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2106,7 +4352,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2131,7 +4377,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2156,7 +4402,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2184,14 +4430,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2212,919 +4464,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADC_03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADC_03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADC_03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$H$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$G$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97540352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97550336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3171,15 +4510,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Authors</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3189,10 +4527,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3204,7 +4542,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$D$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,37 +4577,33 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22:$D$23</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3278,7 +4612,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$F$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3313,37 +4647,33 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$F$22:$F$23</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3352,7 +4682,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$E$21</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3387,37 +4717,41 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$22</c:f>
+              <c:f>Tags!$E$22:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3431,11 +4765,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,7 +4779,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3453,7 +4787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +4805,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3479,14 +4813,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3521,672 +4854,1681 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>0.253 s</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4197,22 +6539,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4338,7 +6680,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4346,7 +6688,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4364,22 +6706,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4505,17 +6847,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4531,22 +6873,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4672,7 +7014,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4680,7 +7022,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4705,16 +7047,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4763,15 +7103,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4780,8 +7120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4816,6 +7156,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4825,13 +7187,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4840,7 +7202,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4870,7 +7232,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4878,11 +7240,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="404284"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4897,22 +7399,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5038,17 +7540,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5067,20 +7569,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5102,22 +7602,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5168,13 +7666,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5183,8 +7681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5219,6 +7717,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5228,22 +7748,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5273,19 +7793,156 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="413808"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="599019"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5300,22 +7957,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5441,17 +8098,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5461,29 +8118,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5773,7 +8407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B19:G63"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5787,8 +8421,119 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="D7FD" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="61" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="49"/>
+      <c r="G63" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="E565" scenarios="true" objects="true"/>
+  <mergeCells count="9">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5797,6 +8542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5807,90 +8553,92 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H22" s="58" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="B22" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H22" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5900,6 +8648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B20:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5910,126 +8659,127 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.28515625"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
     <col min="3" max="7" customWidth="true" width="12.7109375"/>
     <col min="8" max="8" customWidth="true" width="60.7109375"/>
     <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="54">
-        <v>58</v>
-      </c>
-      <c r="C22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="58" t="n">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>54</v>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="57" t="n">
+      <c r="B23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="58" t="n">
+      <c r="D23" s="55"/>
+      <c r="E23" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
-        <v>54</v>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="49" t="s">
+      <c r="B27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="36" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="35" t="s">
-        <v>22</v>
+      <c r="I27" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>29</v>
+      <c r="B28" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="55" t="s">
-        <v>29</v>
+      <c r="B29" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6048,6 +8798,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -6061,107 +8812,108 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="58" t="n">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K22" s="58" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K22" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6169,14 +8921,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="B595" scenarios="true" objects="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6185,7 +8987,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6213,25 +9015,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6239,68 +9037,71 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6308,32 +9109,128 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="49">
+        <v>72</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="H20" t="s" s="49">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="P20" t="s" s="49">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="R20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t>Duration</t>
   </si>
@@ -229,50 +229,132 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Oct 30, 2025 4:12:27 PM</t>
+    <t>Oct 31, 2025 4:23:04 PM</t>
   </si>
   <si>
-    <t>Oct 30, 2025 4:11:26 PM</t>
+    <t>Oct 31, 2025 4:21:01 PM</t>
   </si>
   <si>
-    <t>Oct 30, 2025 4:12:23 PM</t>
+    <t>Oct 31, 2025 4:23:00 PM</t>
   </si>
   <si>
-    <t>57.021 s</t>
+    <t>1 m 58.830 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>50%</t>
+    <t>@TC_UI_Admin_OEV_01</t>
   </si>
   <si>
-    <t>@TC_UI_Admin_PSColor_01</t>
+    <t>Verify Order Email Flow</t>
   </si>
   <si>
-    <t>@Regression</t>
+    <t>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</t>
   </si>
   <si>
-    <t>Verify secondary color display for product</t>
+    <t>1 m 57.801 s</t>
   </si>
   <si>
-    <t>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</t>
+    <t>1 m 57.807 s</t>
   </si>
   <si>
-    <t>55.902 s</t>
+    <t>Given User places an order successfully</t>
   </si>
   <si>
-    <t>55.911 s</t>
-  </si>
-  <si>
-    <t>Then the secondary color should display on the product details, add to cart popup, wishlist, and checkout pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.lang.AssertionError: Color mismatch in Checkout page! Expected: Space | Found: Blue
-	at org.junit.Assert.fail(Assert.java:89)
-	at pages.AdminProductSecondaryColorPage.verifyProductColorInUserApp(AdminProductSecondaryColorPage.java:531)
-	at stepDef.AdminProductSecondaryColorStepDef.the_secondary_color_should_display_on_the_product_details_add_to_cart_popup_wishlist_and_checkout_pages(AdminProductSecondaryColorStepDef.java:26)
-	at ✽.the secondary color should display on the product details, add to cart popup, wishlist, and checkout pages(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/secondaryColor.feature:8)
+    <t xml:space="preserve">org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //button[contains(@class,'place_order_btn') and normalize-space(text())='Continue']' (tried for 15 second(s) with 500 milliseconds interval)
+	at org.openqa.selenium.support.ui.WebDriverWait.timeoutException(WebDriverWait.java:84)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:228)
+	at pages.AdminEmailVerifyOrderFlowPage.addProductToCartAndPlacedTheOrder(AdminEmailVerifyOrderFlowPage.java:104)
+	at pages.AdminEmailVerifyOrderFlowPage.verifyOrderPlacedEmail(AdminEmailVerifyOrderFlowPage.java:380)
+	at stepDef.AdminEmailVerifyOrderFlowStepDef.user_places_an_order_successfully(AdminEmailVerifyOrderFlowStepDef.java:22)
+	at ✽.User places an order successfully(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/emailVerify.feature:5)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//button[contains(@class,'place_order_btn') and normalize-space(text())='Continue']"}
+  (Session info: chrome=141.0.7390.123)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [614fe4dbcc18d1b9fa9917774c7e64dd, findElement {using=xpath, value=//button[contains(@class,'place_order_btn') and normalize-space(text())='Continue']}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 141.0.7390.123, chrome: {chromedriverVersion: 141.0.7390.122 (b477534e7e1..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62154}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:62154/devtoo..., se:cdpVersion: 141.0.7390.123, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 614fe4dbcc18d1b9fa9917774c7e64dd
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor87.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$uh6bY7BK.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.isDisplayed(Unknown Source)
+	at org.openqa.selenium.support.ui.ExpectedConditions.elementIfVisible(ExpectedConditions.java:304)
+	at org.openqa.selenium.support.ui.ExpectedConditions$10.apply(ExpectedConditions.java:290)
+	at org.openqa.selenium.support.ui.ExpectedConditions$10.apply(ExpectedConditions.java:287)
+	at org.openqa.selenium.support.ui.ExpectedConditions$23.apply(ExpectedConditions.java:656)
+	at org.openqa.selenium.support.ui.ExpectedConditions$23.apply(ExpectedConditions.java:652)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
+	at pages.AdminEmailVerifyOrderFlowPage.addProductToCartAndPlacedTheOrder(AdminEmailVerifyOrderFlowPage.java:104)
+	at pages.AdminEmailVerifyOrderFlowPage.verifyOrderPlacedEmail(AdminEmailVerifyOrderFlowPage.java:380)
+	at stepDef.AdminEmailVerifyOrderFlowStepDef.user_places_an_order_successfully(AdminEmailVerifyOrderFlowStepDef.java:22)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
 </t>
   </si>
 </sst>
@@ -873,21 +955,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20:$B$21</c:f>
+              <c:f>'DB Data'!$B$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -944,21 +1023,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20:$D$21</c:f>
+              <c:f>'DB Data'!$D$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1015,27 +1091,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20:$C$21</c:f>
+              <c:f>'DB Data'!$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1252,7 +1322,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify secondary color display for product</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1319,7 +1389,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify secondary color display for product</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1386,7 +1456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify secondary color display for product</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2551,7 +2621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify secondary color display for product</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2618,7 +2688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify secondary color display for product</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2685,7 +2755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify secondary color display for product</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2914,7 +2984,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2922,12 +2992,7 @@
           <c:val>
             <c:numRef>
               <c:f>'DB Data'!$R$20</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2986,7 +3051,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2994,7 +3059,12 @@
           <c:val>
             <c:numRef>
               <c:f>'DB Data'!$T$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3053,7 +3123,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4032,7 +4102,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4040,12 +4110,7 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$H$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4104,7 +4169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4112,7 +4177,12 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4171,7 +4241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_PSColor_01 |Check Product secondary color appears across user page.| "TD_UI_Admin_PSColor_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4583,21 +4653,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
+              <c:f>Tags!$D$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4653,21 +4720,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
+              <c:f>Tags!$F$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4723,27 +4787,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_PSColor_01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4887,13 +4945,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4919,13 +4977,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8407,7 +8465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G63"/>
+  <dimension ref="B19:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8448,91 +8506,74 @@
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>74</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G39" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="51" t="s">
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="61" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="49"/>
-      <c r="G63" s="53" t="s">
+      <c r="F62" s="49"/>
+      <c r="G62" s="53" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="E565" scenarios="true" objects="true"/>
-  <mergeCells count="9">
+  <sheetProtection sheet="true" password="D9D5" scenarios="true" objects="true"/>
+  <mergeCells count="8">
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8609,16 +8650,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>40</v>
@@ -8626,13 +8667,13 @@
       <c r="G22" s="50" t="n">
         <v>2.0</v>
       </c>
-      <c r="H22" s="55" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="H22" s="55"/>
       <c r="I22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="J22" s="57"/>
+      <c r="J22" s="57" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8649,7 +8690,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:I29"/>
+  <dimension ref="B20:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8698,7 +8739,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>1.0</v>
@@ -8712,83 +8753,48 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="51" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="53" t="s">
+      <c r="I27" s="53" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8879,13 +8885,13 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="50" t="n">
         <v>1.0</v>
@@ -8901,13 +8907,13 @@
       <c r="J22" s="50" t="n">
         <v>2.0</v>
       </c>
-      <c r="K22" s="55" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="K22" s="55"/>
       <c r="L22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="M22" s="57"/>
+      <c r="M22" s="57" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8954,20 +8960,20 @@
     </row>
     <row r="3">
       <c r="B3" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="B595" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="D2A7" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9028,9 +9034,7 @@
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
@@ -9076,7 +9080,9 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="H4" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -9118,7 +9124,7 @@
         <v>70</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -9178,7 +9184,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="49">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="50" t="n">
@@ -9186,7 +9192,7 @@
       </c>
       <c r="D20" s="50"/>
       <c r="H20" t="s" s="49">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="49">
         <v>40</v>
@@ -9197,28 +9203,18 @@
       </c>
       <c r="L20" s="50"/>
       <c r="P20" t="s" s="49">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q20" t="s" s="49">
         <v>40</v>
       </c>
-      <c r="R20" s="50" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="R20" s="50"/>
       <c r="S20" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="n">
+      <c r="T20" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D21" s="50"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,16 +189,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 01, 2025 4:28:27 PM</t>
+    <t>Nov 03, 2025 1:17:29 PM</t>
   </si>
   <si>
-    <t>Nov 01, 2025 4:27:03 PM</t>
+    <t>Nov 03, 2025 1:13:48 PM</t>
   </si>
   <si>
-    <t>Nov 01, 2025 4:28:22 PM</t>
+    <t>Nov 03, 2025 1:17:25 PM</t>
   </si>
   <si>
-    <t>1 m 19.993 s</t>
+    <t>3 m 36.651 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -207,7 +207,7 @@
     <t>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</t>
   </si>
   <si>
-    <t>1 m 19.036 s</t>
+    <t>3 m 35.692 s</t>
   </si>
   <si>
     <t>Verify Order Email Flow</t>
@@ -216,7 +216,7 @@
     <t>@TC_UI_Admin_OEV_01</t>
   </si>
   <si>
-    <t>1 m 19.043 s</t>
+    <t>3 m 35.698 s</t>
   </si>
 </sst>
 </file>
@@ -5773,7 +5773,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="840D" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="B831" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,67 +217,52 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Nov 06, 2025 4:46:20 PM</t>
   </si>
   <si>
-    <t>Nov 03, 2025 1:17:29 PM</t>
+    <t>Nov 06, 2025 4:46:05 PM</t>
   </si>
   <si>
-    <t>Nov 03, 2025 1:13:48 PM</t>
+    <t>Nov 06, 2025 4:46:16 PM</t>
   </si>
   <si>
-    <t>Nov 03, 2025 1:17:25 PM</t>
+    <t>10.258 s</t>
   </si>
   <si>
-    <t>3 m 36.651 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</t>
-  </si>
-  <si>
-    <t>3 m 35.692 s</t>
+    <t>@TC_UI_Admin_OEV_12</t>
   </si>
   <si>
     <t>Verify Order Email Flow</t>
   </si>
   <si>
-    <t>@TC_UI_Admin_OEV_01</t>
+    <t>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</t>
   </si>
   <si>
-    <t>3 m 35.698 s</t>
+    <t>8.099 s</t>
+  </si>
+  <si>
+    <t>8.112 s</t>
+  </si>
+  <si>
+    <t>Given Admin cancels the exchange order after it has been shipped, the Exchange Order Cancellation email should be received.</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -224,7 +270,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +281,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,9 +354,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +380,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +393,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -345,11 +426,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -374,6 +450,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -441,9 +554,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -471,173 +582,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,230 +772,26 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Devices</a:t>
-            </a:r>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -924,10 +805,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -939,11 +820,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$D$21</c:f>
+              <c:f>'DB Data'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PASSED</c:v>
+                  <c:v>Scenario Passed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -981,30 +862,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$B$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1013,11 +888,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$F$21</c:f>
+              <c:f>'DB Data'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
+                  <c:v>Scenario Failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1055,30 +930,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$D$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1087,11 +956,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$E$21</c:f>
+              <c:f>'DB Data'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FAILED</c:v>
+                  <c:v>Scenario Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,30 +998,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$E$22</c:f>
+              <c:f>'DB Data'!$C$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1166,11 +1034,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1048,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46117248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,800 +1056,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Scenarios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Steps</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Scenarios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
-          <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
-          <c:h val="0.85236429602767994"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="3175">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$H$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$J$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97185152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97201536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1997,554 +1084,6 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Steps</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.2858134693485639E-2"/>
-          <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-      <c:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
                   <a:t>Scenarios</a:t>
                 </a:r>
               </a:p>
@@ -2557,16 +1096,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2575,8 +1111,10 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -2587,7 +1125,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2631,10 +1169,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2699,17 +1237,12 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2776,7 +1309,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2838,12 +1371,17 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$G$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2857,11 +1395,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97540352"/>
+        <c:axId val="46512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
+        <c:crossAx val="46513536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97550336"/>
+        <c:axId val="46513536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2912,7 +1450,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
+        <c:crossAx val="46512000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2943,7 +1481,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3009,7 +1547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3034,7 +1572,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3059,7 +1597,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3089,12 +1627,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3110,6 +1654,2783 @@
         <c:firstSliceAng val="0"/>
         <c:holeSize val="40"/>
       </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify Order Email Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify Order Email Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify Order Email Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3278738246891114E-2"/>
+          <c:y val="0.10500003204542271"/>
+          <c:w val="0.953375796178344"/>
+          <c:h val="0.85236429602767994"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$H$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$J$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$I$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89325952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="44310528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44310528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="89325952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2858134693485639E-2"/>
+          <c:y val="0.17364592842131704"/>
+          <c:w val="0.96715927750410535"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3156,15 +4477,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Authors</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3174,10 +4494,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3189,7 +4509,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$D$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3224,37 +4544,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3263,7 +4576,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$F$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3298,37 +4611,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$F$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3337,7 +4643,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$E$21</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3372,37 +4678,35 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$22</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3416,11 +4720,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +4734,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3438,7 +4742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +4760,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3464,14 +4768,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3506,672 +4809,1681 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>0.253 s</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4182,22 +6494,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4323,7 +6635,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4331,7 +6643,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4349,22 +6661,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4490,17 +6802,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4516,22 +6828,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4657,7 +6969,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4665,7 +6977,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4690,16 +7002,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4748,15 +7058,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4765,8 +7075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4801,6 +7111,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4810,13 +7142,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4825,7 +7157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4855,7 +7187,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4863,11 +7195,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="404284"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4882,22 +7354,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5023,17 +7495,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5052,20 +7524,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5087,22 +7557,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5153,13 +7621,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5168,8 +7636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5204,6 +7672,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5213,22 +7703,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5258,19 +7748,156 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="413808"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="599019"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5285,22 +7912,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5426,17 +8053,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5446,29 +8073,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5758,7 +8362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B19:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5772,8 +8376,102 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="B831" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="49"/>
+      <c r="G62" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="9809" scenarios="true" objects="true"/>
+  <mergeCells count="8">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5782,6 +8480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5792,90 +8491,90 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="57" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H22" s="58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="B22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5885,6 +8584,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B20:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5895,92 +8595,93 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.28515625"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
     <col min="3" max="7" customWidth="true" width="12.7109375"/>
     <col min="8" max="8" customWidth="true" width="60.7109375"/>
     <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="54">
-        <v>58</v>
-      </c>
-      <c r="C22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="58" t="n">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>54</v>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="36" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="35" t="s">
-        <v>22</v>
+      <c r="I26" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>29</v>
+      <c r="B27" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5998,6 +8699,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -6011,107 +8713,106 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="58" t="n">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="57" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K22" s="58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6119,14 +8820,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="E3C9" scenarios="true" objects="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6135,7 +8886,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6163,94 +8914,91 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>2.0</v>
-      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6258,32 +9006,116 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="49">
+        <v>71</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="H20" t="s" s="49">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="P20" t="s" s="49">
+        <v>73</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>Duration</t>
   </si>
@@ -189,37 +189,34 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 07, 2025 4:41:52 PM</t>
+    <t>Nov 10, 2025 12:39:41 PM</t>
   </si>
   <si>
-    <t>Nov 07, 2025 4:40:49 PM</t>
+    <t>Nov 10, 2025 12:35:16 PM</t>
   </si>
   <si>
-    <t>Nov 07, 2025 4:41:47 PM</t>
+    <t>Nov 10, 2025 12:39:37 PM</t>
   </si>
   <si>
-    <t>58.098 s</t>
+    <t>4 m 20.731 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</t>
+    <t>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</t>
   </si>
   <si>
-    <t>57.060 s</t>
+    <t>4 m 19.861 s</t>
   </si>
   <si>
-    <t>Home Page Banner upload verification admin panel</t>
+    <t>Verify Order Email Flow</t>
   </si>
   <si>
-    <t>@Regression</t>
+    <t>@TC_UI_Admin_OEV_12</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADM_04</t>
-  </si>
-  <si>
-    <t>57.070 s</t>
+    <t>4 m 19.869 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,7 +1799,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1927,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2333,27 +2330,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
+              <c:f>Tags!$D$22</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2412,21 +2403,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
+              <c:f>Tags!$F$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2483,21 +2471,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2706,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2778,7 +2763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2845,7 +2830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Verify Order Email Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5788,7 +5773,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="83D5" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="9B77" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5878,10 +5863,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -5900,7 +5885,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I29"/>
+  <dimension ref="B20:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5962,83 +5947,48 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
-        <v>54</v>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="54" t="s">
+    <row r="27">
+      <c r="B27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C27" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="55" t="s">
+      <c r="I27" s="55" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6135,7 +6085,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1.0</v>
@@ -6149,10 +6099,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6231,7 +6181,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6300,7 +6250,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>Duration</t>
   </si>
@@ -189,34 +189,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 10, 2025 12:39:41 PM</t>
+    <t>Nov 11, 2025 12:02:44 PM</t>
   </si>
   <si>
-    <t>Nov 10, 2025 12:35:16 PM</t>
+    <t>Nov 11, 2025 11:58:54 AM</t>
   </si>
   <si>
-    <t>Nov 10, 2025 12:39:37 PM</t>
+    <t>Nov 11, 2025 12:02:38 PM</t>
   </si>
   <si>
-    <t>4 m 20.731 s</t>
+    <t>3 m 44.262 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</t>
+    <t>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</t>
   </si>
   <si>
-    <t>4 m 19.861 s</t>
+    <t>3 m 42.347 s</t>
   </si>
   <si>
     <t>Verify Order Email Flow</t>
   </si>
   <si>
-    <t>@TC_UI_Admin_OEV_12</t>
+    <t>@TC_UI_Admin_OEV_01</t>
   </si>
   <si>
-    <t>4 m 19.869 s</t>
+    <t>@Mail</t>
+  </si>
+  <si>
+    <t>3 m 42.357 s</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1799,7 +1802,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1927,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2330,21 +2333,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_12</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Mail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22</c:f>
+              <c:f>Tags!$D$22:$D$23</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2403,18 +2412,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_12</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Mail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22</c:f>
+              <c:f>Tags!$F$22:$F$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2471,18 +2483,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_12</c:v>
+                  <c:v>@TC_UI_Admin_OEV_01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Mail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22</c:f>
+              <c:f>Tags!$E$22:$E$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -5773,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="9B77" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="DA67" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5863,10 +5878,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -5885,7 +5900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I27"/>
+  <dimension ref="B20:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5947,48 +5962,83 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+    <row r="23">
+      <c r="B23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C27" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="36" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I27" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="54" t="s">
+    <row r="28">
+      <c r="B28" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C28" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="62" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I28" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="55" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6085,7 +6135,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1.0</v>
@@ -6099,10 +6149,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6181,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6250,7 +6300,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,37 +189,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 11, 2025 12:02:44 PM</t>
+    <t>Nov 11, 2025 2:32:56 PM</t>
   </si>
   <si>
-    <t>Nov 11, 2025 11:58:54 AM</t>
+    <t>Nov 11, 2025 2:27:19 PM</t>
   </si>
   <si>
-    <t>Nov 11, 2025 12:02:38 PM</t>
+    <t>Nov 11, 2025 2:32:52 PM</t>
   </si>
   <si>
-    <t>3 m 44.262 s</t>
+    <t>5 m 33.129 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</t>
+    <t>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</t>
   </si>
   <si>
-    <t>3 m 42.347 s</t>
+    <t>5 m 32.065 s</t>
   </si>
   <si>
     <t>Verify Order Email Flow</t>
   </si>
   <si>
-    <t>@TC_UI_Admin_OEV_01</t>
+    <t>@TC_UI_Admin_OEV_12</t>
   </si>
   <si>
     <t>@Mail</t>
   </si>
   <si>
-    <t>3 m 42.357 s</t>
+    <t>5 m 32.093 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,7 +1802,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_01 |Verify emails for order placed, shipped, and delivered.| "TD_UI_Admin_OEV_01"</c:v>
+                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2337,7 +2337,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_01</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@Mail</c:v>
@@ -2416,7 +2416,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_01</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@Mail</c:v>
@@ -2487,7 +2487,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_01</c:v>
+                  <c:v>@TC_UI_Admin_OEV_12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@Mail</c:v>
@@ -5788,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="DA67" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="BE4F" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5878,10 +5878,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -6149,10 +6149,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6231,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,37 +189,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 11, 2025 2:32:56 PM</t>
+    <t>Nov 17, 2025 4:54:10 PM</t>
   </si>
   <si>
-    <t>Nov 11, 2025 2:27:19 PM</t>
+    <t>Nov 17, 2025 4:46:10 PM</t>
   </si>
   <si>
-    <t>Nov 11, 2025 2:32:52 PM</t>
+    <t>Nov 17, 2025 4:54:08 PM</t>
   </si>
   <si>
-    <t>5 m 33.129 s</t>
+    <t>7 m 58.649 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</t>
+    <t>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</t>
   </si>
   <si>
-    <t>5 m 32.065 s</t>
+    <t>7 m 57.623 s</t>
   </si>
   <si>
-    <t>Verify Order Email Flow</t>
+    <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
   </si>
   <si>
-    <t>@TC_UI_Admin_OEV_12</t>
+    <t>@Calculation</t>
   </si>
   <si>
-    <t>@Mail</t>
+    <t>@TC_UI_Zlaata_Calculate_02</t>
   </si>
   <si>
-    <t>5 m 32.093 s</t>
+    <t>7 m 57.631 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,7 +1802,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Admin_OEV_12 |Verify that Exchange Order Cancellation email is received after the admin cancels the exchange order once it has been shipped.| "TD_UI_Admin_OEV_12"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2337,10 +2337,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_12</c:v>
+                  <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@Mail</c:v>
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2416,10 +2416,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_12</c:v>
+                  <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@Mail</c:v>
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2487,10 +2487,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Admin_OEV_12</c:v>
+                  <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@Mail</c:v>
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2706,7 +2706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify Order Email Flow</c:v>
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2778,7 +2778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify Order Email Flow</c:v>
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2845,7 +2845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify Order Email Flow</c:v>
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5788,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="BE4F" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="C529" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5878,10 +5878,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -6149,10 +6149,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6231,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,16 +189,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 17, 2025 4:54:10 PM</t>
+    <t>Nov 17, 2025 5:47:59 PM</t>
   </si>
   <si>
-    <t>Nov 17, 2025 4:46:10 PM</t>
+    <t>Nov 17, 2025 5:40:05 PM</t>
   </si>
   <si>
-    <t>Nov 17, 2025 4:54:08 PM</t>
+    <t>Nov 17, 2025 5:47:57 PM</t>
   </si>
   <si>
-    <t>7 m 58.649 s</t>
+    <t>7 m 52.135 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -207,7 +207,7 @@
     <t>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</t>
   </si>
   <si>
-    <t>7 m 57.623 s</t>
+    <t>7 m 51.086 s</t>
   </si>
   <si>
     <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
@@ -219,7 +219,7 @@
     <t>@TC_UI_Zlaata_Calculate_02</t>
   </si>
   <si>
-    <t>7 m 57.631 s</t>
+    <t>7 m 51.092 s</t>
   </si>
 </sst>
 </file>
@@ -5788,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="C529" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FAA3" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,16 +189,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 17, 2025 5:47:59 PM</t>
+    <t>Nov 19, 2025 9:11:51 AM</t>
   </si>
   <si>
-    <t>Nov 17, 2025 5:40:05 PM</t>
+    <t>Nov 19, 2025 9:04:50 AM</t>
   </si>
   <si>
-    <t>Nov 17, 2025 5:47:57 PM</t>
+    <t>Nov 19, 2025 9:11:48 AM</t>
   </si>
   <si>
-    <t>7 m 52.135 s</t>
+    <t>6 m 57.314 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -207,7 +207,7 @@
     <t>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</t>
   </si>
   <si>
-    <t>7 m 51.086 s</t>
+    <t>6 m 56.211 s</t>
   </si>
   <si>
     <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
@@ -219,7 +219,7 @@
     <t>@TC_UI_Zlaata_Calculate_02</t>
   </si>
   <si>
-    <t>7 m 51.092 s</t>
+    <t>6 m 56.219 s</t>
   </si>
 </sst>
 </file>
@@ -5788,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="FAA3" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="C49B" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,37 +189,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 19, 2025 9:11:51 AM</t>
+    <t>Nov 20, 2025 3:50:08 PM</t>
   </si>
   <si>
-    <t>Nov 19, 2025 9:04:50 AM</t>
+    <t>Nov 20, 2025 3:48:04 PM</t>
   </si>
   <si>
-    <t>Nov 19, 2025 9:11:48 AM</t>
+    <t>Nov 20, 2025 3:50:02 PM</t>
   </si>
   <si>
-    <t>6 m 57.314 s</t>
+    <t>1 m 57.462 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</t>
+    <t>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</t>
   </si>
   <si>
-    <t>6 m 56.211 s</t>
+    <t>1 m 56.123 s</t>
   </si>
   <si>
-    <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
+    <t>Admin can update product influencer status and verify in User App</t>
   </si>
   <si>
-    <t>@Calculation</t>
+    <t>@TC_UI_Zlaata_ADMI_01</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Calculate_02</t>
+    <t>@Regression</t>
   </si>
   <si>
-    <t>6 m 56.219 s</t>
+    <t>1 m 56.138 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,7 +1802,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2337,10 +2337,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                  <c:v>@Regression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2416,10 +2416,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                  <c:v>@Regression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2487,10 +2487,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                  <c:v>@Regression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2706,7 +2706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                  <c:v>Admin can update product influencer status and verify in User App</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2778,7 +2778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                  <c:v>Admin can update product influencer status and verify in User App</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2845,7 +2845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                  <c:v>Admin can update product influencer status and verify in User App</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5788,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="C49B" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FFD3" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5878,10 +5878,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -6149,10 +6149,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6231,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Duration</t>
   </si>
@@ -189,37 +189,40 @@
     <t>device</t>
   </si>
   <si>
-    <t>Nov 20, 2025 3:50:08 PM</t>
+    <t>Nov 21, 2025 12:19:22 PM</t>
   </si>
   <si>
-    <t>Nov 20, 2025 3:48:04 PM</t>
+    <t>Nov 21, 2025 12:17:17 PM</t>
   </si>
   <si>
-    <t>Nov 20, 2025 3:50:02 PM</t>
+    <t>Nov 21, 2025 12:19:21 PM</t>
   </si>
   <si>
-    <t>1 m 57.462 s</t>
+    <t>2 m 3.635 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</t>
+    <t>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</t>
   </si>
   <si>
-    <t>1 m 56.123 s</t>
+    <t>2 m 2.754 s</t>
   </si>
   <si>
-    <t>Admin can update product influencer status and verify in User App</t>
+    <t>Home Page Banner upload verification admin panel</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADMI_01</t>
+    <t>@Home</t>
   </si>
   <si>
     <t>@Regression</t>
   </si>
   <si>
-    <t>1 m 56.138 s</t>
+    <t>@TC_UI_Zlaata_ADM_07</t>
+  </si>
+  <si>
+    <t>2 m 2.760 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,7 +1805,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1933,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2333,27 +2336,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
+                  <c:v>@Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
+              <c:f>Tags!$D$22:$D$24</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2412,21 +2421,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
+                  <c:v>@Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
+              <c:f>Tags!$F$22:$F$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2483,21 +2495,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
+                  <c:v>@Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
+              <c:f>Tags!$E$22:$E$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2706,7 +2721,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2778,7 +2793,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2845,7 +2860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5788,7 +5803,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="FFD3" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="EE01" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5878,10 +5893,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -5900,7 +5915,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I29"/>
+  <dimension ref="B20:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5978,45 +5993,43 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+    <row r="24">
+      <c r="B24" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="36" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I28" s="35" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>57</v>
@@ -6032,13 +6045,50 @@
         <v>29</v>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6135,7 +6185,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1.0</v>
@@ -6149,10 +6199,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6231,7 +6281,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6300,7 +6350,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,73 +217,61 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Nov 29, 2025 9:54:43 AM</t>
   </si>
   <si>
-    <t>Nov 21, 2025 12:19:22 PM</t>
+    <t>Nov 29, 2025 9:50:45 AM</t>
   </si>
   <si>
-    <t>Nov 21, 2025 12:17:17 PM</t>
+    <t>Nov 29, 2025 9:54:39 AM</t>
   </si>
   <si>
-    <t>Nov 21, 2025 12:19:21 PM</t>
+    <t>3 m 53.990 s</t>
   </si>
   <si>
-    <t>2 m 3.635 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>@Calculation</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</t>
+    <t>@TC_UI_Zlaata_Calculate_05</t>
   </si>
   <si>
-    <t>2 m 2.754 s</t>
+    <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
   </si>
   <si>
-    <t>Home Page Banner upload verification admin panel</t>
+    <t>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</t>
   </si>
   <si>
-    <t>@Home</t>
+    <t>3 m 52.367 s</t>
   </si>
   <si>
-    <t>@Regression</t>
+    <t>3 m 52.382 s</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADM_07</t>
+    <t>Given user adds a product priced less than the admin panel price-check value, the system should display the shipping chargeand my order page.</t>
   </si>
   <si>
-    <t>2 m 2.760 s</t>
+    <t xml:space="preserve">java.lang.AssertionError: ❌ Total mismatch! Expected: 268 | Found: 768
+	at org.junit.Assert.fail(Assert.java:89)
+	at pages.Calculation_MyOrder_Page.validateRazorpayAccessories(Calculation_MyOrder_Page.java:4216)
+	at pages.Calculation_MyOrder_Page.verifyAccessoriesProductsShippingCharges(Calculation_MyOrder_Page.java:4534)
+	at stepDef.Calculation_MyOrder_StepDef.user_adds_a_product_priced_less_than_the_admin_panel_price_check_value_the_system_should_display_the_shipping_chargeand_my_order_page(Calculation_MyOrder_StepDef.java:61)
+	at ✽.user adds a product priced less than the admin panel price-check value, the system should display the shipping chargeand my order page.(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/Calculation_MyOrder/Calculation_MyOrder.feature:47)
+</t>
   </si>
 </sst>
 </file>
@@ -230,7 +279,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +290,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -290,9 +363,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +389,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,7 +402,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -351,11 +435,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -380,6 +459,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -447,9 +563,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -477,173 +591,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,24 +781,30 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -720,10 +814,719 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>@Calculation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$B$20:$B$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>@Calculation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$20:$D$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>@Calculation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$C$20:$C$21</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46151168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46117248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46117248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46151168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46512000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46513536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46513536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46512000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
+          <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -765,7 +1568,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -790,7 +1593,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -815,7 +1618,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -845,12 +1648,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -886,7 +1695,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -912,15 +1721,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Devices</a:t>
+              <a:t>Authors</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -930,10 +1738,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -945,7 +1753,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$D$21</c:f>
+              <c:f>Authors!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -980,37 +1788,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$D$22</c:f>
+              <c:f>Authors!$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1019,7 +1826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$F$21</c:f>
+              <c:f>Authors!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1054,25 +1861,24 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$F$22</c:f>
+              <c:f>Authors!$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1084,7 +1890,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1093,7 +1899,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$E$21</c:f>
+              <c:f>Authors!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1128,37 +1934,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$E$22</c:f>
+              <c:f>Authors!$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1172,11 +1977,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1991,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1194,7 +1999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +2017,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1220,14 +2025,379 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1281,12 +2451,745 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenarios</a:t>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1295,8 +3198,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1308,10 +3211,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1353,7 +3256,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1378,7 +3281,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1403,42 +3306,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
+                  <c:v>Features Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
+                  <c:v>Features Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
+                  <c:v>Features Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1474,7 +3414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1494,16 +3434,16 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Steps</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1512,8 +3452,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1525,10 +3465,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1570,7 +3510,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1595,7 +3535,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1620,42 +3560,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
+                  <c:v>Scenarios Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
+                  <c:v>Scenarios Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
+                  <c:v>Scenarios Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1691,7 +3668,261 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1734,9 +3965,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
+          <c:x val="3.3278738246891114E-2"/>
           <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
+          <c:w val="0.953375796178344"/>
           <c:h val="0.85236429602767994"/>
         </c:manualLayout>
       </c:layout>
@@ -1794,7 +4025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,17 +4033,12 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$H$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1866,7 +4092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1879,7 +4105,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1933,7 +4159,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1941,12 +4167,17 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1960,11 +4191,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97185152"/>
+        <c:axId val="89325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +4205,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
+        <c:crossAx val="44310528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1982,7 +4213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97201536"/>
+        <c:axId val="44310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +4245,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
+        <c:crossAx val="89325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2043,7 +4274,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2109,7 +4340,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2134,7 +4365,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2159,7 +4390,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2187,14 +4418,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2215,931 +4452,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>@Home</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22:$D$24</c:f>
-              <c:numCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>@Home</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22:$F$24</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>@Home</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22:$E$24</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$H$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$G$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97540352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97550336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3186,15 +4498,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Authors</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3204,10 +4515,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3219,7 +4530,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$D$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3254,37 +4565,33 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@Calculation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22:$D$23</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3293,7 +4600,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$F$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3328,37 +4635,33 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@Calculation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$F$22:$F$23</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3367,7 +4670,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$E$21</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3402,37 +4705,41 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@Calculation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$22</c:f>
+              <c:f>Tags!$E$22:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3446,11 +4753,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +4767,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3468,7 +4775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,7 +4793,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3494,14 +4801,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3536,672 +4842,1681 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>0.253 s</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4212,22 +6527,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4353,7 +6668,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4361,7 +6676,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4379,22 +6694,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4520,17 +6835,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4546,22 +6861,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4687,7 +7002,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4695,7 +7010,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4720,16 +7035,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4778,15 +7091,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4795,8 +7108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4831,6 +7144,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4840,13 +7175,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4855,7 +7190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4885,7 +7220,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4893,11 +7228,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="404284"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4912,22 +7387,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5053,17 +7528,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5082,20 +7557,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5117,22 +7590,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5183,13 +7654,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5198,8 +7669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5234,6 +7705,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5243,22 +7736,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5288,19 +7781,156 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="413808"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="599019"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5315,22 +7945,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5456,17 +8086,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5476,29 +8106,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5788,7 +8395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B19:G63"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5802,8 +8409,119 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="EE01" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="61" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="49"/>
+      <c r="G63" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="8293" scenarios="true" objects="true"/>
+  <mergeCells count="9">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5812,6 +8530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5822,90 +8541,90 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="57" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H22" s="58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="B22" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5915,7 +8634,8 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I31"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B20:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5925,170 +8645,136 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.28515625"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
     <col min="3" max="7" customWidth="true" width="12.7109375"/>
     <col min="8" max="8" customWidth="true" width="60.7109375"/>
     <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="54">
-        <v>58</v>
-      </c>
-      <c r="C22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="58" t="n">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>54</v>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="57" t="n">
+      <c r="B23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="58" t="n">
+      <c r="D23" s="55"/>
+      <c r="E23" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
-        <v>54</v>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61" t="s">
-        <v>54</v>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>16</v>
+    <row r="28">
+      <c r="B28" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
-      <c r="H28" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>22</v>
+      <c r="H28" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="55" t="s">
-        <v>29</v>
+      <c r="B29" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6098,6 +8784,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -6111,107 +8798,106 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="58" t="n">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="57" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K22" s="58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6219,14 +8905,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="B1F3" scenarios="true" objects="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6235,7 +8971,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6263,94 +8999,91 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>4.0</v>
-      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6358,32 +9091,126 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="49">
+        <v>71</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="H20" t="s" s="49">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="P20" t="s" s="49">
+        <v>74</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="100">
   <si>
     <t>Duration</t>
   </si>
@@ -229,22 +229,37 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Nov 29, 2025 9:54:43 AM</t>
+    <t>Nov 29, 2025 4:24:15 PM</t>
   </si>
   <si>
-    <t>Nov 29, 2025 9:50:45 AM</t>
+    <t>Nov 29, 2025 4:14:24 PM</t>
   </si>
   <si>
-    <t>Nov 29, 2025 9:54:39 AM</t>
+    <t>Nov 29, 2025 4:24:10 PM</t>
   </si>
   <si>
-    <t>3 m 53.990 s</t>
+    <t>9 m 46.572 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
     <t>@Calculation</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Calculate_02</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Calculate_03</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Calculate_04</t>
   </si>
   <si>
     <t>@TC_UI_Zlaata_Calculate_05</t>
@@ -253,22 +268,164 @@
     <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
   </si>
   <si>
+    <t>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</t>
+  </si>
+  <si>
     <t>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</t>
   </si>
   <si>
-    <t>3 m 52.367 s</t>
+    <t>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</t>
   </si>
   <si>
-    <t>3 m 52.382 s</t>
+    <t>3 m 31.360 s</t>
+  </si>
+  <si>
+    <t>3 m 58.599 s</t>
+  </si>
+  <si>
+    <t>49.755 s</t>
+  </si>
+  <si>
+    <t>49.289 s</t>
+  </si>
+  <si>
+    <t>35.543 s</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Calculate_01</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>9 m 45.445 s</t>
+  </si>
+  <si>
+    <t>Given User adds Product P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: By.xpath: //button[@data-testid='order-summary-widget-multiple'] (tried for 10 second(s) with 500 milliseconds interval)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: net.bytebuddy.renamed.java.lang.Object$ByteBuddy$FlRxqnsV
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 142.0.7444.176, chrome: {chromedriverVersion: 142.0.7444.175 (302067f14a4..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65468}, goog:processID: 20124, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65468/devtoo..., se:cdpVersion: 142.0.7444.176, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 272c25b7eb1f7a38d5cfa43183c7cdcf
+	at org.openqa.selenium.support.ui.WebDriverWait.timeoutException(WebDriverWait.java:84)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:228)
+	at pages.Calculation_MyOrder_Page.validateRazorpaySummaryCalculation(Calculation_MyOrder_Page.java:818)
+	at pages.Calculation_MyOrder_Page.verify_P1_P2_With_GC_C_GW_GCA_T_E(Calculation_MyOrder_Page.java:4384)
+	at stepDef.Calculation_MyOrder_StepDef.user_adds_product_p1_p2_with_gift_wrap_coupon_gift_card_amount_and_thread(Calculation_MyOrder_StepDef.java:29)
+	at ✽.User adds Product P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/Calculation_MyOrder/Calculation_MyOrder.feature:17)
+</t>
+  </si>
+  <si>
+    <t>Given User adds Product P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: By.xpath: //div[@class='nav_drop_down_box_category active']//ul/li/a[translate(normalize-space(), 'abcdefghijklmnopqrstuvwxyz', 'ABCDEFGHIJKLMNOPQRSTUVWXYZ') = 'DRESSES'] (tried for 20 second(s) with 500 milliseconds interval)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: net.bytebuddy.renamed.java.lang.Object$ByteBuddy$1OKnVAtN
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 142.0.7444.176, chrome: {chromedriverVersion: 142.0.7444.175 (302067f14a4..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50858}, goog:processID: 17912, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50858/devtoo..., se:cdpVersion: 142.0.7444.176, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e847482c0ec573f8f67dacd517fc6f3d
+	at org.openqa.selenium.support.ui.WebDriverWait.timeoutException(WebDriverWait.java:84)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:228)
+	at pages.Calculation_MyOrder_Page.takeRandomProductFromAll(Calculation_MyOrder_Page.java:148)
+	at pages.Calculation_MyOrder_Page.verify_P1_CP_AP_With_GC_C_GW_GCA_T_E(Calculation_MyOrder_Page.java:4430)
+	at stepDef.Calculation_MyOrder_StepDef.user_adds_product_p1_cp_ap_with_gift_wrap_coupon_gift_card_amount_and_thread(Calculation_MyOrder_StepDef.java:39)
+	at ✽.User adds Product P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/Calculation_MyOrder/Calculation_MyOrder.feature:27)
+</t>
+  </si>
+  <si>
+    <t>Given user adds a product priced less than the admin panel price-check value, the system should display the shipping charge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;a href="/" class="navigation_menu_txt" style=""&gt;...&lt;/a&gt; is not clickable at point (295, 146). Other element would receive the click: &lt;div class="delete_giftcard_popup popup_containers active"&gt;...&lt;/div&gt;
+  (Session info: chrome=142.0.7444.176)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [27460fea7abed16af31ce9eeccb896a5, clickElement {id=f.9E4E306CA19C0ECC75B7D92E8070A154.d.6321A1C2811B3EE7B17378DCEAFB12D9.e.490}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 142.0.7444.176, chrome: {chromedriverVersion: 142.0.7444.175 (302067f14a4..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55997}, goog:processID: 12132, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55997/devtoo..., se:cdpVersion: 142.0.7444.176, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (27460fea7abed16af31ce9eeccb896a5)] -&gt; xpath: (//a[normalize-space()='Home'])[1]]
+Session ID: 27460fea7abed16af31ce9eeccb896a5
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
+	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$riGop4pX.click(Unknown Source)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
+	at com.sun.proxy.$Proxy50.click(Unknown Source)
+	at pages.Calculation_MyOrder_Page.takeAccessoriesProduct(Calculation_MyOrder_Page.java:3909)
+	at pages.Calculation_MyOrder_Page.verifyAccessoriesProductsShippingChargesAndMyOrderPage(Calculation_MyOrder_Page.java:4551)
+	at stepDef.Calculation_MyOrder_StepDef.user_adds_a_product_priced_less_than_the_admin_panel_price_check_value_the_system_should_display_the_shipping_charge(Calculation_MyOrder_StepDef.java:51)
+	at ✽.user adds a product priced less than the admin panel price-check value, the system should display the shipping charge.(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/Calculation_MyOrder/Calculation_MyOrder.feature:37)
+</t>
   </si>
   <si>
     <t>Given user adds a product priced less than the admin panel price-check value, the system should display the shipping chargeand my order page.</t>
   </si>
   <si>
-    <t xml:space="preserve">java.lang.AssertionError: ❌ Total mismatch! Expected: 268 | Found: 768
-	at org.junit.Assert.fail(Assert.java:89)
-	at pages.Calculation_MyOrder_Page.validateRazorpayAccessories(Calculation_MyOrder_Page.java:4216)
-	at pages.Calculation_MyOrder_Page.verifyAccessoriesProductsShippingCharges(Calculation_MyOrder_Page.java:4534)
+    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;a href="/" class="navigation_menu_txt" style=""&gt;...&lt;/a&gt; is not clickable at point (295, 146). Other element would receive the click: &lt;div class="delete_giftcard_popup popup_containers active"&gt;...&lt;/div&gt;
+  (Session info: chrome=142.0.7444.176)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [09dc2caa510c615d0f5c8dca50b59b2d, clickElement {id=f.3D0C84628B4F521C529181B02B93CAAC.d.D0A30F723A1BF53FEA710528BBB52850.e.489}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 142.0.7444.176, chrome: {chromedriverVersion: 142.0.7444.175 (302067f14a4..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54663}, goog:processID: 4392, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:54663/devtoo..., se:cdpVersion: 142.0.7444.176, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (09dc2caa510c615d0f5c8dca50b59b2d)] -&gt; xpath: (//a[normalize-space()='Home'])[1]]
+Session ID: 09dc2caa510c615d0f5c8dca50b59b2d
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
+	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$q7fvnTrn.click(Unknown Source)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
+	at com.sun.proxy.$Proxy50.click(Unknown Source)
+	at pages.Calculation_MyOrder_Page.takeAccessoriesProduct(Calculation_MyOrder_Page.java:3909)
+	at pages.Calculation_MyOrder_Page.verifyAccessoriesProductsShippingCharges(Calculation_MyOrder_Page.java:4516)
 	at stepDef.Calculation_MyOrder_StepDef.user_adds_a_product_priced_less_than_the_admin_panel_price_check_value_the_system_should_display_the_shipping_chargeand_my_order_page(Calculation_MyOrder_StepDef.java:61)
 	at ✽.user adds a product priced less than the admin panel price-check value, the system should display the shipping chargeand my order page.(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/Calculation_MyOrder/Calculation_MyOrder.feature:47)
 </t>
@@ -279,7 +436,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +570,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color rgb="00FF00"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <i val="true"/>
     </font>
     <font>
@@ -434,6 +597,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -591,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -722,7 +890,7 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -732,6 +900,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,13 +1045,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:f>'DB Data'!$A$20:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_Calculate_04</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
@@ -885,8 +1068,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20:$B$21</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$B$20:$B$24</c:f>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -942,13 +1130,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:f>'DB Data'!$A$20:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_Calculate_04</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
@@ -956,7 +1153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20:$D$21</c:f>
+              <c:f>'DB Data'!$D$20:$D$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1013,13 +1210,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$21</c:f>
+              <c:f>'DB Data'!$A$20:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_Calculate_04</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
@@ -1027,13 +1233,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20:$C$21</c:f>
+              <c:f>'DB Data'!$C$20:$C$24</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1258,7 +1473,12 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$F$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1395,7 +1615,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,7 +2777,12 @@
           <c:val>
             <c:numRef>
               <c:f>'DB Data'!$J$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2694,7 +2919,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,10 +3133,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
@@ -2919,7 +3153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20</c:f>
+              <c:f>'DB Data'!$R$20:$R$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2975,10 +3209,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
@@ -2986,8 +3229,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$T$20:$T$23</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3042,10 +3296,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
@@ -3053,10 +3316,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20</c:f>
+              <c:f>'DB Data'!$S$20:$S$23</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4021,10 +4293,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
@@ -4032,8 +4316,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$H$22:$H$26</c:f>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4088,10 +4377,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
@@ -4099,8 +4400,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$J$22:$J$26</c:f>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4155,10 +4467,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>TC_UI_Zlaata_Calculate_05 |Verify price calculation for Acessories product shipping charge and my order page.| "TD_UI_Zlaata_Calculate_05"</c:v>
                 </c:pt>
               </c:strCache>
@@ -4166,10 +4490,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22</c:f>
+              <c:f>Scenarios!$I$22:$I$26</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4571,13 +4904,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@TC_UI_Zlaata_Calculate_04</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4585,8 +4930,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
-              <c:numCache/>
+              <c:f>Tags!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4641,13 +4994,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@TC_UI_Zlaata_Calculate_04</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4655,7 +5020,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
+              <c:f>Tags!$F$22:$F$27</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4711,13 +5076,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_Calculate_02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@TC_UI_Zlaata_Calculate_04</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>@TC_UI_Zlaata_Calculate_05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4725,13 +5102,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
+              <c:f>Tags!$E$22:$E$27</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4875,13 +5261,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4907,13 +5293,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8395,7 +8781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G63"/>
+  <dimension ref="B19:G72"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8436,91 +8822,219 @@
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G39" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>73</v>
-      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
       <c r="F40" s="52" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G40" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+    <row r="41">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="61" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
+    <row r="42">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="67" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B67" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="36" t="s">
+    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="8" t="s">
+      <c r="C68" s="38"/>
+      <c r="D68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E68" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="8" t="s">
+      <c r="F68" s="38"/>
+      <c r="G68" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="53" t="s">
+    <row r="69">
+      <c r="B69" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="49"/>
-      <c r="G63" s="53" t="s">
+      <c r="E69" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="49"/>
+      <c r="G69" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="49"/>
+      <c r="G70" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="49"/>
+      <c r="G71" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="53" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="8293" scenarios="true" objects="true"/>
-  <mergeCells count="9">
+  <sheetProtection sheet="true" password="940D" scenarios="true" objects="true"/>
+  <mergeCells count="17">
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="B69:C72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8531,7 +9045,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J22"/>
+  <dimension ref="B20:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8597,28 +9111,134 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H22" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56" t="n">
+      <c r="J23" s="58" t="n">
         <v>1.0</v>
       </c>
-      <c r="J22" s="57"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8635,7 +9255,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:I29"/>
+  <dimension ref="B20:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8684,97 +9304,296 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56" t="n">
+      <c r="D23" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+    <row r="25">
+      <c r="B25" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C31" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="34" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I31" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="52" t="s">
+    <row r="32">
+      <c r="B32" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="52" t="s">
+      <c r="C32" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="C38" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="53" t="s">
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="53" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8865,33 +9684,39 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>76</v>
+      <c r="D22" s="55" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58" t="s">
-        <v>70</v>
+      <c r="G22" s="57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="J22" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="57"/>
+        <v>9.0</v>
+      </c>
+      <c r="K22" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L22" s="57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M22" s="58" t="n">
+        <v>3.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8907,7 +9732,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -8938,20 +9763,59 @@
     </row>
     <row r="3">
       <c r="B3" s="52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="49"/>
+      <c r="C5" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="49"/>
+      <c r="C6" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="B1F3" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="92C3" scenarios="true" objects="true"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9008,11 +9872,15 @@
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" s="0"/>
+      <c r="F2" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" s="0"/>
+      <c r="H2" t="n" s="0">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
@@ -9031,13 +9899,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9058,7 +9926,9 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="H4" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -9077,13 +9947,13 @@
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9097,10 +9967,10 @@
         <v>70</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -9160,26 +10030,30 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="49">
-        <v>71</v>
-      </c>
-      <c r="B20" s="50"/>
+        <v>73</v>
+      </c>
+      <c r="B20" s="50" t="n">
+        <v>1.0</v>
+      </c>
       <c r="C20" s="50" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" s="50"/>
       <c r="H20" t="s" s="49">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="49">
         <v>40</v>
       </c>
-      <c r="J20" s="50"/>
+      <c r="J20" s="50" t="n">
+        <v>1.0</v>
+      </c>
       <c r="K20" s="50" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L20" s="50"/>
       <c r="P20" t="s" s="49">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="s" s="49">
         <v>40</v>
@@ -9188,20 +10062,86 @@
       <c r="S20" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T20" s="50"/>
+      <c r="T20" s="50" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="n">
         <v>1.0</v>
       </c>
       <c r="D21" s="50"/>
+      <c r="P21" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="P22" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T22" s="50" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="P23" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="50"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>Duration</t>
   </si>
@@ -189,40 +189,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Dec 03, 2025 3:10:47 PM</t>
+    <t>Dec 11, 2025 9:55:13 AM</t>
   </si>
   <si>
-    <t>Dec 03, 2025 3:08:05 PM</t>
+    <t>Dec 11, 2025 9:49:36 AM</t>
   </si>
   <si>
-    <t>Dec 03, 2025 3:10:45 PM</t>
+    <t>Dec 11, 2025 9:55:10 AM</t>
   </si>
   <si>
-    <t>2 m 40.024 s</t>
+    <t>5 m 34.610 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADC_05 |Verify with Two Specific Products Coupon Verification.| "TD_UI_Zlaata_ADC_05"</t>
+    <t>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</t>
   </si>
   <si>
-    <t>2 m 39.141 s</t>
+    <t>5 m 33.057 s</t>
   </si>
   <si>
-    <t>Verify coupon creation and availability in Admin and User App</t>
+    <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
   </si>
   <si>
-    <t>@Coupon</t>
+    <t>@Calculation</t>
   </si>
   <si>
-    <t>@Regression</t>
+    <t>@TC_UI_Zlaata_Calculate_01</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADC_05</t>
-  </si>
-  <si>
-    <t>2 m 39.152 s</t>
+    <t>5 m 33.065 s</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADC_05 |Verify with Two Specific Products Coupon Verification.| "TD_UI_Zlaata_ADC_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1866,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADC_05 |Verify with Two Specific Products Coupon Verification.| "TD_UI_Zlaata_ADC_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1933,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADC_05 |Verify with Two Specific Products Coupon Verification.| "TD_UI_Zlaata_ADC_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2336,33 +2333,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@Coupon</c:v>
+                  <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADC_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$24</c:f>
+              <c:f>Tags!$D$22:$D$23</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2421,24 +2412,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@Coupon</c:v>
+                  <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADC_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$24</c:f>
+              <c:f>Tags!$F$22:$F$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2495,24 +2483,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@Coupon</c:v>
+                  <c:v>@Calculation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADC_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$24</c:f>
+              <c:f>Tags!$E$22:$E$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2721,7 +2706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2793,7 +2778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2860,7 +2845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5803,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="FE59" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="ECA1" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5915,7 +5900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I31"/>
+  <dimension ref="B20:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5993,43 +5978,45 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61" t="s">
-        <v>54</v>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>22</v>
+    <row r="28">
+      <c r="B28" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>57</v>
@@ -6045,50 +6032,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6185,7 +6135,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1.0</v>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,70 +217,136 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Dec 16, 2025 5:21:52 PM</t>
   </si>
   <si>
-    <t>Dec 11, 2025 9:55:13 AM</t>
+    <t>Dec 16, 2025 5:21:15 PM</t>
   </si>
   <si>
-    <t>Dec 11, 2025 9:49:36 AM</t>
+    <t>Dec 16, 2025 5:21:51 PM</t>
   </si>
   <si>
-    <t>Dec 11, 2025 9:55:10 AM</t>
+    <t>35.830 s</t>
   </si>
   <si>
-    <t>5 m 34.610 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>@Home</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</t>
+    <t>@TC_UI_Zlaata_ADM_02</t>
   </si>
   <si>
-    <t>5 m 33.057 s</t>
+    <t>@Regression</t>
   </si>
   <si>
-    <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
+    <t>@Positive</t>
   </si>
   <si>
-    <t>@Calculation</t>
+    <t>Home Page Banner upload verification admin panel</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Calculate_01</t>
+    <t>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</t>
   </si>
   <si>
-    <t>5 m 33.065 s</t>
+    <t>34.952 s</t>
+  </si>
+  <si>
+    <t>34.959 s</t>
+  </si>
+  <si>
+    <t>Given admin removes the product from Top Selling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id: session deleted as the browser has closed the connection
+from disconnected: not connected to DevTools
+  (Session info: chrome=143.0.7499.41)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f73ba4a3043915b054116f8c9fdb10b2, findElement {using=xpath, value=(//input[@name='filters[0][sku]'])[1]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 143.0.7499.41, chrome: {chromedriverVersion: 143.0.7499.42 (24bdc8c48a0c..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61753}, goog:processID: 10348, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61753/devtoo..., se:cdpVersion: 143.0.7499.41, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f73ba4a3043915b054116f8c9fdb10b2
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor87.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$FTBu9XiO.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.getAttribute(Unknown Source)
+	at pages.AdminPanelPage.fetchSkuFromProduct(AdminPanelPage.java:319)
+	at pages.AdminPanelPage.validateProductSuccessfullyRemoved(AdminPanelPage.java:2116)
+	at stepDef.AdminPanelStepDef.admin_removes_the_product_from_top_selling(AdminPanelStepDef.java:43)
+	at ✽.admin removes the product from Top Selling.(file:///C:/Users/Sarojkumar/git/ZlaataQAseverSaroj/src/test/resources/features/AdminFeature/allHomePage.feature:21)
+</t>
+  </si>
+  <si>
+    <t>stepDef.Hooks.tearDown(io.cucumber.java.Scenario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f73ba4a3043915b054116f8c9fdb10b2, screenshot {}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 143.0.7499.41, chrome: {chromedriverVersion: 143.0.7499.42 (24bdc8c48a0c..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61753}, goog:processID: 10348, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61753/devtoo..., se:cdpVersion: 143.0.7499.41, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f73ba4a3043915b054116f8c9fdb10b2
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
+	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$FTBu9XiO.getScreenshotAs(Unknown Source)
+	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
+	at stepDef.Hooks.tearDown(Hooks.java:298)
+</t>
   </si>
 </sst>
 </file>
@@ -227,7 +354,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +365,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,9 +438,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +464,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +477,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -348,11 +510,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +519,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -377,6 +534,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -444,9 +638,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -474,173 +666,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,24 +856,30 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -717,10 +889,743 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>@Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$B$20:$B$23</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>@Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$20:$D$23</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>@Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46151168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46117248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46117248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46151168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46512000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46513536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46513536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46512000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
+          <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -762,7 +1667,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -787,7 +1692,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -812,7 +1717,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -842,12 +1747,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -883,7 +1794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -909,15 +1820,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Devices</a:t>
+              <a:t>Authors</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -927,10 +1837,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -942,7 +1852,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$D$21</c:f>
+              <c:f>Authors!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,37 +1887,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$D$22</c:f>
+              <c:f>Authors!$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,7 +1925,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$F$21</c:f>
+              <c:f>Authors!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,25 +1960,24 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$F$22</c:f>
+              <c:f>Authors!$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1081,7 +1989,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1090,7 +1998,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$E$21</c:f>
+              <c:f>Authors!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1125,37 +2033,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$E$22</c:f>
+              <c:f>Authors!$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1169,11 +2076,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +2090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +2098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +2116,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1217,14 +2124,379 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1278,12 +2550,750 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenarios</a:t>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1292,8 +3302,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1305,10 +3315,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1350,7 +3360,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1375,7 +3385,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1400,42 +3410,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
+                  <c:v>Features Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
+                  <c:v>Features Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
+                  <c:v>Features Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1471,7 +3518,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1491,16 +3538,16 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Steps</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1509,8 +3556,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1522,10 +3569,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1567,7 +3614,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1592,7 +3639,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1617,42 +3664,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
+                  <c:v>Scenarios Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
+                  <c:v>Scenarios Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
+                  <c:v>Scenarios Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1688,7 +3772,261 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1731,9 +4069,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
+          <c:x val="3.3278738246891114E-2"/>
           <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
+          <c:w val="0.953375796178344"/>
           <c:h val="0.85236429602767994"/>
         </c:manualLayout>
       </c:layout>
@@ -1791,7 +4129,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1799,17 +4137,12 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$H$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,7 +4196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1871,12 +4204,17 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1930,7 +4268,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_01 |Verify price breakup for P1 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1938,12 +4276,17 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1957,11 +4300,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97185152"/>
+        <c:axId val="89325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +4314,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
+        <c:crossAx val="44310528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1979,7 +4322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97201536"/>
+        <c:axId val="44310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +4354,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
+        <c:crossAx val="89325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,7 +4383,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2106,7 +4449,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2131,7 +4474,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2156,7 +4499,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2184,14 +4527,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2212,919 +4561,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$H$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$G$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97540352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97550336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3171,15 +4607,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Authors</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3189,10 +4624,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3204,7 +4639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$D$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,37 +4674,39 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@Positive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22:$D$25</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3278,7 +4715,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$F$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3313,37 +4750,39 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@Positive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$F$22:$F$25</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3352,7 +4791,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$E$21</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3387,37 +4826,53 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@Positive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$22</c:f>
+              <c:f>Tags!$E$22:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3431,11 +4886,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,7 +4900,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3453,7 +4908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +4926,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3479,14 +4934,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3521,672 +4975,1681 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>0.253 s</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4197,22 +6660,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4338,7 +6801,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4346,7 +6809,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4364,22 +6827,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4505,17 +6968,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4531,22 +6994,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4672,7 +7135,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4680,7 +7143,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4705,16 +7168,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4763,15 +7224,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4780,8 +7241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4816,6 +7277,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4825,13 +7308,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4840,7 +7323,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4870,7 +7353,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4878,11 +7361,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="404284"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4897,22 +7520,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5038,17 +7661,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5067,20 +7690,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5102,22 +7723,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5168,13 +7787,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5183,8 +7802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5219,6 +7838,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5228,22 +7869,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5273,19 +7914,156 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="413808"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="599019"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5300,22 +8078,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5441,17 +8219,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5461,29 +8239,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5773,7 +8528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B19:G65"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5787,8 +8542,153 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="ECA1" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="63" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="49"/>
+      <c r="D65" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="49"/>
+      <c r="G65" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="D741" scenarios="true" objects="true"/>
+  <mergeCells count="11">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5797,6 +8697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5807,90 +8708,92 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50" t="n">
         <v>2.0</v>
       </c>
-      <c r="H22" s="58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="57" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5900,7 +8803,8 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I29"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B20:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5910,135 +8814,206 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.28515625"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
     <col min="3" max="7" customWidth="true" width="12.7109375"/>
     <col min="8" max="8" customWidth="true" width="60.7109375"/>
     <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="54">
-        <v>58</v>
-      </c>
-      <c r="C22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="58" t="n">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>54</v>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="57" t="n">
+      <c r="B23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="58" t="n">
+      <c r="D23" s="55"/>
+      <c r="E23" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
-        <v>54</v>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="49" t="s">
+    <row r="24">
+      <c r="B24" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="36" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="35" t="s">
-        <v>22</v>
+      <c r="I29" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>29</v>
+    <row r="30">
+      <c r="B30" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="55" t="s">
-        <v>29</v>
+    <row r="31">
+      <c r="B31" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6048,6 +9023,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -6061,107 +9037,108 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="58" t="n">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="57" t="n">
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50" t="n">
         <v>2.0</v>
       </c>
-      <c r="K22" s="58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="57" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6169,14 +9146,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="807D" scenarios="true" objects="true"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6185,7 +9226,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6213,93 +9254,92 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>2.0</v>
-      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -6308,32 +9348,145 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="49">
+        <v>71</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="H20" t="s" s="49">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="P20" t="s" s="49">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="50" t="n">
+        <v>1.0</v>
+      </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21">
+      <c r="A21" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="50"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -189,25 +189,25 @@
     <t>device</t>
   </si>
   <si>
-    <t>Dec 18, 2025 5:16:31 PM</t>
+    <t>Dec 19, 2025 9:43:37 AM</t>
   </si>
   <si>
-    <t>Dec 18, 2025 5:13:22 PM</t>
+    <t>Dec 19, 2025 9:39:16 AM</t>
   </si>
   <si>
-    <t>Dec 18, 2025 5:16:29 PM</t>
+    <t>Dec 19, 2025 9:43:35 AM</t>
   </si>
   <si>
-    <t>3 m 7.303 s</t>
+    <t>4 m 19.103 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADMINORDER_02 |Verify that admin can able to place the COD order.| "TD_UI_Zlaata_ADMINORDER_02"</t>
+    <t>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</t>
   </si>
   <si>
-    <t>3 m 6.386 s</t>
+    <t>4 m 18.292 s</t>
   </si>
   <si>
     <t>COD verification in RazorPay</t>
@@ -216,10 +216,10 @@
     <t>@AdminOrder</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADMINORDER_02</t>
+    <t>@TC_UI_Zlaata_ADMINORDER_01</t>
   </si>
   <si>
-    <t>3 m 6.395 s</t>
+    <t>4 m 18.298 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMINORDER_02 |Verify that admin can able to place the COD order.| "TD_UI_Zlaata_ADMINORDER_02"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1863,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMINORDER_02 |Verify that admin can able to place the COD order.| "TD_UI_Zlaata_ADMINORDER_02"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMINORDER_02 |Verify that admin can able to place the COD order.| "TD_UI_Zlaata_ADMINORDER_02"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2340,7 +2340,7 @@
                   <c:v>@AdminOrder</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADMINORDER_02</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMINORDER_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2419,7 +2419,7 @@
                   <c:v>@AdminOrder</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADMINORDER_02</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMINORDER_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2490,7 +2490,7 @@
                   <c:v>@AdminOrder</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADMINORDER_02</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMINORDER_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5788,7 +5788,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="F119" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="AECD" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Duration</t>
   </si>
@@ -189,37 +189,40 @@
     <t>device</t>
   </si>
   <si>
-    <t>Dec 19, 2025 9:43:37 AM</t>
+    <t>Dec 25, 2025 11:15:53 AM</t>
   </si>
   <si>
-    <t>Dec 19, 2025 9:39:16 AM</t>
+    <t>Dec 25, 2025 11:14:57 AM</t>
   </si>
   <si>
-    <t>Dec 19, 2025 9:43:35 AM</t>
+    <t>Dec 25, 2025 11:15:51 AM</t>
   </si>
   <si>
-    <t>4 m 19.103 s</t>
+    <t>54.469 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</t>
+    <t>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</t>
   </si>
   <si>
-    <t>4 m 18.292 s</t>
+    <t>53.470 s</t>
   </si>
   <si>
-    <t>COD verification in RazorPay</t>
+    <t>Home Page Banner upload verification admin panel</t>
   </si>
   <si>
-    <t>@AdminOrder</t>
+    <t>@Home</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADMINORDER_01</t>
+    <t>@Regression</t>
   </si>
   <si>
-    <t>4 m 18.298 s</t>
+    <t>@TC_UI_Zlaata_ADM_04</t>
+  </si>
+  <si>
+    <t>53.479 s</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,7 +1805,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1933,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADMINORDER_01 |Verify that admin can able to place the Prepaid order.| "TD_UI_Zlaata_ADMINORDER_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2333,27 +2336,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>@AdminOrder</c:v>
+                  <c:v>@Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADMINORDER_01</c:v>
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
+              <c:f>Tags!$D$22:$D$24</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2412,21 +2421,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>@AdminOrder</c:v>
+                  <c:v>@Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADMINORDER_01</c:v>
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
+              <c:f>Tags!$F$22:$F$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2483,21 +2495,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
+              <c:f>Tags!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>@AdminOrder</c:v>
+                  <c:v>@Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADMINORDER_01</c:v>
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
+              <c:f>Tags!$E$22:$E$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2706,7 +2721,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COD verification in RazorPay</c:v>
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2778,7 +2793,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COD verification in RazorPay</c:v>
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2845,7 +2860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COD verification in RazorPay</c:v>
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5788,7 +5803,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="AECD" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="F457" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5878,10 +5893,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -5900,7 +5915,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I29"/>
+  <dimension ref="B20:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5978,45 +5993,43 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+    <row r="24">
+      <c r="B24" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="36" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I28" s="35" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>57</v>
@@ -6032,13 +6045,50 @@
         <v>29</v>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6135,7 +6185,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1.0</v>
@@ -6149,10 +6199,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6231,7 +6281,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6300,7 +6350,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>Duration</t>
   </si>
@@ -189,40 +189,34 @@
     <t>device</t>
   </si>
   <si>
-    <t>Dec 25, 2025 11:15:53 AM</t>
+    <t>Jan 02, 2026 5:03:57 pm</t>
   </si>
   <si>
-    <t>Dec 25, 2025 11:14:57 AM</t>
+    <t>Jan 02, 2026 5:03:21 pm</t>
   </si>
   <si>
-    <t>Dec 25, 2025 11:15:51 AM</t>
+    <t>Jan 02, 2026 5:03:56 pm</t>
   </si>
   <si>
-    <t>54.469 s</t>
+    <t>34.933 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</t>
+    <t>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</t>
   </si>
   <si>
-    <t>53.470 s</t>
+    <t>34.158 s</t>
   </si>
   <si>
-    <t>Home Page Banner upload verification admin panel</t>
+    <t>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</t>
   </si>
   <si>
-    <t>@Home</t>
+    <t>@TC_UI_Zlaata_ADI_08</t>
   </si>
   <si>
-    <t>@Regression</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_04</t>
-  </si>
-  <si>
-    <t>53.479 s</t>
+    <t>34.164 s</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1805,7 +1799,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,7 +1860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1933,7 +1927,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2336,33 +2330,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Home</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$24</c:f>
+              <c:f>Tags!$D$22</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2421,24 +2403,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Home</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$24</c:f>
+              <c:f>Tags!$F$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2495,24 +2471,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$24</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Home</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$24</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2721,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2793,7 +2763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2860,7 +2830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5803,7 +5773,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="F457" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="BB63" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5893,10 +5863,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -5915,7 +5885,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I31"/>
+  <dimension ref="B20:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5977,118 +5947,48 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
-        <v>54</v>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="54" t="s">
+    <row r="27">
+      <c r="B27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C27" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="62" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="55" t="s">
+      <c r="I27" s="55" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6185,7 +6085,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1.0</v>
@@ -6199,10 +6099,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6281,7 +6181,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6350,7 +6250,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,67 +217,91 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Jan 03, 2026 5:32:09 pm</t>
   </si>
   <si>
-    <t>Jan 02, 2026 5:03:57 pm</t>
+    <t>Jan 03, 2026 5:28:52 pm</t>
   </si>
   <si>
-    <t>Jan 02, 2026 5:03:21 pm</t>
+    <t>Jan 03, 2026 5:32:08 pm</t>
   </si>
   <si>
-    <t>Jan 02, 2026 5:03:56 pm</t>
+    <t>3 m 16.387 s</t>
   </si>
   <si>
-    <t>34.933 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>50%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</t>
-  </si>
-  <si>
-    <t>34.158 s</t>
+    <t>@TC_UI_Zlaata_ADI_10</t>
   </si>
   <si>
     <t>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADI_08</t>
+    <t>TC_UI_Zlaata_ADI_10 |Verify that the newly uploaded size in Track Inventory for a product is reflected in the application| "TD_UI_Zlaata_ADI_10"</t>
   </si>
   <si>
-    <t>34.164 s</t>
+    <t>3 m 15.558 s</t>
+  </si>
+  <si>
+    <t>3 m 15.565 s</t>
+  </si>
+  <si>
+    <t>When Admin uploads the Track Inventory Excel file for new size reflecting in the application "Trackinventories2.xlsx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.ElementNotInteractableException: element not interactable
+  (Session info: chrome=143.0.7499.170)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.6'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [78f6179c687adcf584c4c1a99cf87128, clickElement {id=f.954EB94F1BDB82BF62AF7C1F3627E69A.d.B4FA897779CED4F58E8F2B6B9DFB7282.e.754}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 143.0.7499.170, chrome: {chromedriverVersion: 143.0.7499.169 (164b20aab62..., userDataDir: C:\Users\GOWTHA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53603}, goog:processID: 16888, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:53603/devtoo..., se:cdpVersion: 143.0.7499.170, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (78f6179c687adcf584c4c1a99cf87128)] -&gt; xpath: //button[text()='Submit']]
+Session ID: 78f6179c687adcf584c4c1a99cf87128
+	at java.base/jdk.internal.reflect.DirectConstructorHandleAccessor.newInstance(DirectConstructorHandleAccessor.java:62)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:502)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:486)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
+	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$G4Aguttb.click(Unknown Source)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
+	at jdk.proxy2/jdk.proxy2.$Proxy48.click(Unknown Source)
+	at basePage.BasePage.click(BasePage.java:78)
+	at pages.HomePage.homeLaunch(HomePage.java:36)
+	at pages.AdminPanelAllImortPage.VerifyImportTrackInventoryaddNewsizereflectinginapplication(AdminPanelAllImortPage.java:1642)
+	at stepDef.AdminPanelAllImportStepDef.admin_uploads_the_track_inventory_excel_file_for_new_size_reflecting_in_the_application(AdminPanelAllImportStepDef.java:171)
+	at ✽.Admin uploads the Track Inventory Excel file for new size reflecting in the application "Trackinventories2.xlsx"(file:///C:/Users/gowthamraj/git/ZlaataQAseverforme/src/test/resources/features/AdminFeature/allImport.feature:110)
+</t>
   </si>
 </sst>
 </file>
@@ -224,7 +309,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +320,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,9 +393,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +419,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +432,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -345,11 +465,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -374,6 +489,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -441,9 +593,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -471,173 +621,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,230 +811,26 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Devices</a:t>
-            </a:r>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -924,10 +844,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -939,11 +859,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$D$21</c:f>
+              <c:f>'DB Data'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PASSED</c:v>
+                  <c:v>Scenario Passed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -981,30 +901,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$B$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1013,11 +927,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$F$21</c:f>
+              <c:f>'DB Data'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
+                  <c:v>Scenario Failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1055,30 +969,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$D$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1087,11 +995,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$E$21</c:f>
+              <c:f>'DB Data'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FAILED</c:v>
+                  <c:v>Scenario Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,30 +1037,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$E$22</c:f>
+              <c:f>'DB Data'!$C$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1166,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1087,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46117248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,800 +1095,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Scenarios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Steps</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Scenarios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
-          <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
-          <c:h val="0.85236429602767994"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="3175">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$H$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$J$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97185152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97201536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1997,554 +1123,6 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Steps</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.2858134693485639E-2"/>
-          <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-      <c:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADI_08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADI_08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADI_08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
                   <a:t>Scenarios</a:t>
                 </a:r>
               </a:p>
@@ -2557,16 +1135,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2575,8 +1150,10 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -2587,7 +1164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2631,10 +1208,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2699,17 +1276,12 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2776,7 +1348,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2838,12 +1410,17 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$G$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2857,11 +1434,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97540352"/>
+        <c:axId val="46512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +1448,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
+        <c:crossAx val="46513536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +1456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97550336"/>
+        <c:axId val="46513536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2912,7 +1489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
+        <c:crossAx val="46512000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2943,7 +1520,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3009,7 +1586,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3034,7 +1611,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3059,7 +1636,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3089,12 +1666,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3110,6 +1693,2793 @@
         <c:firstSliceAng val="0"/>
         <c:holeSize val="40"/>
       </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADI_10 |Verify that the newly uploaded size in Track Inventory for a product is reflected in the application| "TD_UI_Zlaata_ADI_10"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADI_10 |Verify that the newly uploaded size in Track Inventory for a product is reflected in the application| "TD_UI_Zlaata_ADI_10"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADI_10 |Verify that the newly uploaded size in Track Inventory for a product is reflected in the application| "TD_UI_Zlaata_ADI_10"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3278738246891114E-2"/>
+          <c:y val="0.10500003204542271"/>
+          <c:w val="0.953375796178344"/>
+          <c:h val="0.85236429602767994"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADI_10 |Verify that the newly uploaded size in Track Inventory for a product is reflected in the application| "TD_UI_Zlaata_ADI_10"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$H$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADI_10 |Verify that the newly uploaded size in Track Inventory for a product is reflected in the application| "TD_UI_Zlaata_ADI_10"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$J$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADI_10 |Verify that the newly uploaded size in Track Inventory for a product is reflected in the application| "TD_UI_Zlaata_ADI_10"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$I$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89325952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="44310528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44310528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="89325952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2858134693485639E-2"/>
+          <c:y val="0.17364592842131704"/>
+          <c:w val="0.96715927750410535"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3156,15 +4526,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Authors</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3174,10 +4543,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3189,7 +4558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$D$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3224,37 +4593,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3263,7 +4625,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$F$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3298,37 +4660,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$F$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3337,7 +4692,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$E$21</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3372,37 +4727,35 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$22</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3416,11 +4769,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +4783,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3438,7 +4791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +4809,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3464,14 +4817,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3506,672 +4858,1681 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>0.253 s</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4182,22 +6543,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4323,7 +6684,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4331,7 +6692,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4349,22 +6710,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4490,17 +6851,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4516,22 +6877,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4657,7 +7018,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4665,7 +7026,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4690,16 +7051,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4748,15 +7107,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4765,8 +7124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4801,6 +7160,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4810,13 +7191,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4825,7 +7206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4855,7 +7236,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4863,11 +7244,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="404284"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4882,22 +7403,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5023,17 +7544,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5052,20 +7573,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5087,22 +7606,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5153,13 +7670,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5168,8 +7685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5204,6 +7721,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5213,22 +7752,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5258,19 +7797,156 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="413808"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="599019"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5285,22 +7961,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5426,17 +8102,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5446,29 +8122,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5758,7 +8411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B19:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5772,8 +8425,102 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="BB63" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="49"/>
+      <c r="G62" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="F809" scenarios="true" objects="true"/>
+  <mergeCells count="8">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5782,6 +8529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5792,90 +8540,92 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50" t="n">
         <v>2.0</v>
       </c>
-      <c r="H22" s="58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="H22" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5885,6 +8635,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B20:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5895,92 +8646,93 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.28515625"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
     <col min="3" max="7" customWidth="true" width="12.7109375"/>
     <col min="8" max="8" customWidth="true" width="60.7109375"/>
     <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="54">
-        <v>58</v>
-      </c>
-      <c r="C22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="58" t="n">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>54</v>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="36" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="35" t="s">
-        <v>22</v>
+      <c r="I26" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>29</v>
+      <c r="B27" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5998,6 +8750,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -6011,107 +8764,108 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="58" t="n">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="57" t="n">
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50" t="n">
         <v>2.0</v>
       </c>
-      <c r="K22" s="58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="K22" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6119,14 +8873,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="8609" scenarios="true" objects="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6135,7 +8939,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6163,25 +8967,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,67 +8989,70 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -6258,32 +9061,118 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="49">
+        <v>72</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="H20" t="s" s="49">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="P20" t="s" s="49">
+        <v>74</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="R20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,70 +217,66 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Jan 07, 2026 12:46:43 PM</t>
   </si>
   <si>
-    <t>Jan 06, 2026 4:34:49 PM</t>
+    <t>Jan 07, 2026 12:44:54 PM</t>
   </si>
   <si>
-    <t>Jan 06, 2026 4:26:39 PM</t>
+    <t>Jan 07, 2026 12:46:41 PM</t>
   </si>
   <si>
-    <t>Jan 06, 2026 4:34:48 PM</t>
+    <t>1 m 47.132 s</t>
   </si>
   <si>
-    <t>8 m 8.536 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>75%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</t>
+    <t>@Coupon</t>
   </si>
   <si>
-    <t>8 m 7.521 s</t>
+    <t>@Regression</t>
   </si>
   <si>
-    <t>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</t>
+    <t>@TC_UI_Zlaata_ADC_02</t>
   </si>
   <si>
-    <t>@Calculation</t>
+    <t>Verify coupon creation and availability in Admin and User App</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Calculate_03</t>
+    <t>TC_UI_Zlaata_ADC_02 |Verify Admin can create a special coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_02"</t>
   </si>
   <si>
-    <t>8 m 7.527 s</t>
+    <t>1 m 45.946 s</t>
+  </si>
+  <si>
+    <t>1 m 45.959 s</t>
+  </si>
+  <si>
+    <t>And Verify the same special coupon is visible in User App coupon list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: ❌ No product found with price above 500!
+	at org.junit.Assert.fail(Assert.java:89)
+	at pages.AdminPanelCouponPage.verifySpecialCouponInUserApp(AdminPanelCouponPage.java:470)
+	at stepDef.AdminPanelCouponStepDef.verify_the_same_special_coupon_is_visible_in_user_app_coupon_list(AdminPanelCouponStepDef.java:47)
+	at ✽.Verify the same special coupon is visible in User App coupon list(file:///C:/Users/Sarojkumar/git/ZlaataQAsever6/src/test/resources/features/AdminFeature/allCoupon.feature:22)
+</t>
   </si>
 </sst>
 </file>
@@ -227,7 +284,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +295,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,9 +368,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +394,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +407,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -348,11 +440,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +449,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -377,6 +464,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -444,9 +568,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -474,173 +596,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,24 +786,30 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -717,10 +819,731 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>@Coupon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADC_02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$B$20:$B$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>@Coupon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADC_02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$20:$D$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$A$20:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>@Coupon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADC_02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$C$20:$C$22</c:f>
+              <c:numCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46151168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46117248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46117248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46151168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46512000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46513536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46513536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46512000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
+          <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -762,7 +1585,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -787,7 +1610,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -812,7 +1635,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -842,12 +1665,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -883,7 +1712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -909,15 +1738,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Devices</a:t>
+              <a:t>Authors</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -927,10 +1755,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -942,7 +1770,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$D$21</c:f>
+              <c:f>Authors!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,37 +1805,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$D$22</c:f>
+              <c:f>Authors!$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,7 +1843,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$F$21</c:f>
+              <c:f>Authors!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,25 +1878,24 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$F$22</c:f>
+              <c:f>Authors!$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1081,7 +1907,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1090,7 +1916,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$E$21</c:f>
+              <c:f>Authors!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1125,37 +1951,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>Authors!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$E$22</c:f>
+              <c:f>Authors!$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1169,11 +1994,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +2008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +2016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +2034,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1217,14 +2042,379 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1278,12 +2468,750 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verify coupon creation and availability in Admin and User App</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenarios</a:t>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADC_02 |Verify Admin can create a special coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_02"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADC_02 |Verify Admin can create a special coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_02"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADC_02 |Verify Admin can create a special coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_02"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1292,8 +3220,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1305,10 +3233,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1350,7 +3278,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1375,7 +3303,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1400,42 +3328,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
+                  <c:v>Features Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
+                  <c:v>Features Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
+                  <c:v>Features Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1471,7 +3436,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1491,16 +3456,16 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Steps</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1509,8 +3474,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1522,10 +3487,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1567,7 +3532,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1592,7 +3557,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1617,42 +3582,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
+                  <c:v>Scenarios Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
+                  <c:v>Scenarios Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
+                  <c:v>Scenarios Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1688,7 +3690,261 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1731,9 +3987,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
+          <c:x val="3.3278738246891114E-2"/>
           <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
+          <c:w val="0.953375796178344"/>
           <c:h val="0.85236429602767994"/>
         </c:manualLayout>
       </c:layout>
@@ -1791,7 +4047,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                  <c:v>TC_UI_Zlaata_ADC_02 |Verify Admin can create a special coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,14 +4058,14 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,7 +4119,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                  <c:v>TC_UI_Zlaata_ADC_02 |Verify Admin can create a special coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1876,7 +4132,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1930,7 +4186,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</c:v>
+                  <c:v>TC_UI_Zlaata_ADC_02 |Verify Admin can create a special coupon and it appears in Admin and User App.| "TD_UI_Zlaata_ADC_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1938,12 +4194,17 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1957,11 +4218,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97185152"/>
+        <c:axId val="89325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +4232,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
+        <c:crossAx val="44310528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1979,7 +4240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97201536"/>
+        <c:axId val="44310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +4272,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
+        <c:crossAx val="89325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,7 +4301,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2106,7 +4367,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2131,7 +4392,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2156,7 +4417,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2184,14 +4445,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2212,919 +4479,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22:$D$23</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22:$F$23</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>@Calculation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Calculate_03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22:$E$23</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$H$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Verify product order with Gift Wrap, Coupon, Gift Card, Gift Card Amount and Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$G$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97540352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97550336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3171,15 +4525,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Authors</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3189,10 +4542,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3204,7 +4557,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$D$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,37 +4592,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@Coupon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_ADC_02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22:$D$24</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3278,7 +4630,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$F$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3313,37 +4665,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-